--- a/data/growth/PA14biolog.xlsx
+++ b/data/growth/PA14biolog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenbar/Dropbox/PArecon4/testrepo/parecon/data/growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenbar/Dropbox/PArecon4/Data/data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB28B2-60F4-094A-A68B-4A3162D529B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F89C37-D4D2-F846-814F-954F096D461C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="960" windowWidth="10000" windowHeight="15900" activeTab="1" xr2:uid="{B7EC0E6A-F66A-674A-8205-DEBC02D8A883}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="27220" windowHeight="15900" xr2:uid="{B7EC0E6A-F66A-674A-8205-DEBC02D8A883}"/>
   </bookViews>
   <sheets>
     <sheet name="PA14" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -588,287 +588,287 @@
     <t>γ-Amino Butyric Acid</t>
   </si>
   <si>
-    <t>EX_cpd00797(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd01949(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00361(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00162(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00294(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd01242(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00599(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00136(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00029(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00142(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00182(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00211(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00331(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd01502(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00137(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00266(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00080(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00117(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00158(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00082(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00072(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00280(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00222(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00089(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00079(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00164(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00386(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00314(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00138(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00105(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00609(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00550(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00588(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00666(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00154(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00047(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00106(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00100(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00033(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00155(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00139(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd11589(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd11592(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd11588(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00040(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00851(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00246(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00380(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00035(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd11585(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00224(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00051(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00132(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00041(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00023(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00053(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00119(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00227(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00322(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00159(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00107(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00039(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00130(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00060(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00064(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00066(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00129(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00054(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00161(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00156(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00308(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00179(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd01262(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd03320(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00121(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00652(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00477(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00489(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00141(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00118(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00020(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00036(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00184(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00794(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00249(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00581(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00027(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00094(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00024(e)</t>
-  </si>
-  <si>
-    <t>EX_cpd00281(e)</t>
-  </si>
-  <si>
     <t>PA14</t>
   </si>
   <si>
     <t>PAO1</t>
+  </si>
+  <si>
+    <t>EX_cpd01949_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00361_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00162_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00294_e</t>
+  </si>
+  <si>
+    <t>EX_cpd01242_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00599_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00136_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00029_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00142_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00182_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00211_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00331_e</t>
+  </si>
+  <si>
+    <t>EX_cpd01502_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00137_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00266_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00080_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00117_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00158_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00082_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00072_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00280_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00222_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00089_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00079_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00164_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00386_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00314_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00138_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00105_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00609_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00550_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00588_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00666_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00154_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00047_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00106_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00100_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00033_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00155_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00139_e</t>
+  </si>
+  <si>
+    <t>EX_cpd11589_e</t>
+  </si>
+  <si>
+    <t>EX_cpd11592_e</t>
+  </si>
+  <si>
+    <t>EX_cpd11588_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00040_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00851_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00246_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00380_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00035_e</t>
+  </si>
+  <si>
+    <t>EX_cpd11585_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00224_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00051_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00132_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00041_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00023_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00053_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00119_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00227_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00322_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00159_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00107_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00039_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00130_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00060_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00064_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00066_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00129_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00054_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00161_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00156_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00308_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00179_e</t>
+  </si>
+  <si>
+    <t>EX_cpd01262_e</t>
+  </si>
+  <si>
+    <t>EX_cpd03320_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00121_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00652_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00477_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00489_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00141_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00118_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00020_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00036_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00184_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00794_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00249_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00581_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00027_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00094_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00024_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00797_e</t>
+  </si>
+  <si>
+    <t>EX_cpd00281_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7777,16 +7777,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6997CF19-04B5-6B49-8CEC-0B8F6BA38983}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7794,18 +7794,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -7815,12 +7815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -7830,12 +7830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -7845,12 +7845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -7860,12 +7860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7875,12 +7875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51">
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -7890,12 +7890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -7905,12 +7905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -7920,12 +7920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -7935,12 +7935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -7950,12 +7950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -7965,12 +7965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -7980,12 +7980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -7995,12 +7995,12 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -8010,12 +8010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -8025,12 +8025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -8040,12 +8040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -8055,12 +8055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -8070,12 +8070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>38</v>
@@ -8085,12 +8085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>40</v>
@@ -8100,12 +8100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -8115,12 +8115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>44</v>
@@ -8130,12 +8130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -8145,12 +8145,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
@@ -8160,12 +8160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>50</v>
@@ -8175,12 +8175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>52</v>
@@ -8190,12 +8190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>54</v>
@@ -8205,12 +8205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>56</v>
@@ -8220,12 +8220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
@@ -8235,12 +8235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>60</v>
@@ -8250,12 +8250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>62</v>
@@ -8265,12 +8265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>64</v>
@@ -8280,12 +8280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>66</v>
@@ -8295,12 +8295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>68</v>
@@ -8310,12 +8310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>70</v>
@@ -8325,12 +8325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
@@ -8340,12 +8340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>74</v>
@@ -8355,12 +8355,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>76</v>
@@ -8370,12 +8370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>78</v>
@@ -8385,12 +8385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>80</v>
@@ -8400,12 +8400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>82</v>
@@ -8415,12 +8415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>84</v>
@@ -8430,12 +8430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>86</v>
@@ -8445,12 +8445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -8460,12 +8460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>90</v>
@@ -8475,12 +8475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
@@ -8490,12 +8490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>94</v>
@@ -8505,12 +8505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>96</v>
@@ -8520,12 +8520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>98</v>
@@ -8535,12 +8535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>100</v>
@@ -8550,12 +8550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>102</v>
@@ -8565,12 +8565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>104</v>
@@ -8580,12 +8580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>106</v>
@@ -8595,12 +8595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>108</v>
@@ -8610,12 +8610,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>110</v>
@@ -8625,12 +8625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>112</v>
@@ -8640,12 +8640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>114</v>
@@ -8655,12 +8655,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>116</v>
@@ -8670,12 +8670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>118</v>
@@ -8685,12 +8685,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>120</v>
@@ -8700,12 +8700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
         <v>122</v>
@@ -8715,12 +8715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>124</v>
@@ -8730,12 +8730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>126</v>
@@ -8745,12 +8745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>128</v>
@@ -8760,12 +8760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>130</v>
@@ -8775,12 +8775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>132</v>
@@ -8790,12 +8790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
@@ -8805,12 +8805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>136</v>
@@ -8820,12 +8820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>137</v>
@@ -8835,12 +8835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>139</v>
@@ -8850,12 +8850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>141</v>
@@ -8865,12 +8865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -8880,12 +8880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>145</v>
@@ -8895,12 +8895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>147</v>
@@ -8910,12 +8910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>149</v>
@@ -8925,12 +8925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>151</v>
@@ -8940,12 +8940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>152</v>
@@ -8955,12 +8955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>154</v>
@@ -8970,12 +8970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>156</v>
@@ -8985,12 +8985,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>158</v>
@@ -9000,12 +9000,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>160</v>
@@ -9015,12 +9015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>162</v>
@@ -9030,12 +9030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>164</v>
@@ -9045,12 +9045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>166</v>
@@ -9060,12 +9060,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>168</v>
@@ -9075,12 +9075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>170</v>
@@ -9090,12 +9090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>172</v>
@@ -9105,12 +9105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>176</v>
@@ -9120,12 +9120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>178</v>
@@ -9135,12 +9135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>180</v>
@@ -9150,12 +9150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>182</v>
@@ -9165,12 +9165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>184</v>
@@ -9189,16 +9189,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5A9142-6A71-284D-B11B-BC580D2A0386}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9206,12 +9206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -9221,12 +9221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -9236,12 +9236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9251,12 +9251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -9266,12 +9266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -9281,12 +9281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -9296,12 +9296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -9311,12 +9311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -9326,12 +9326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -9341,12 +9341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -9356,12 +9356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -9371,12 +9371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -9386,12 +9386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -9401,12 +9401,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -9416,12 +9416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -9431,12 +9431,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -9446,12 +9446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -9461,12 +9461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -9476,12 +9476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -9491,12 +9491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -9506,12 +9506,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -9521,12 +9521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -9536,12 +9536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -9551,12 +9551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -9566,12 +9566,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -9581,12 +9581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -9596,12 +9596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -9611,12 +9611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -9626,12 +9626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -9641,12 +9641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -9656,12 +9656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -9671,12 +9671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -9686,12 +9686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -9701,12 +9701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -9716,12 +9716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -9731,12 +9731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -9746,12 +9746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
@@ -9761,12 +9761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
@@ -9776,12 +9776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
@@ -9791,12 +9791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -9806,12 +9806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
@@ -9821,12 +9821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
         <v>84</v>
@@ -9836,12 +9836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
@@ -9851,12 +9851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
@@ -9866,12 +9866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -9881,12 +9881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -9896,12 +9896,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -9911,12 +9911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
         <v>96</v>
@@ -9926,12 +9926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
         <v>98</v>
@@ -9941,12 +9941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
         <v>100</v>
@@ -9956,12 +9956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
         <v>102</v>
@@ -9971,12 +9971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
         <v>104</v>
@@ -9986,12 +9986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
@@ -10001,12 +10001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" t="s">
         <v>108</v>
@@ -10016,12 +10016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
         <v>110</v>
@@ -10031,12 +10031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
         <v>112</v>
@@ -10046,12 +10046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
         <v>114</v>
@@ -10061,12 +10061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s">
         <v>116</v>
@@ -10076,12 +10076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
@@ -10091,12 +10091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
         <v>120</v>
@@ -10106,12 +10106,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
         <v>122</v>
@@ -10121,12 +10121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
         <v>124</v>
@@ -10136,12 +10136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
         <v>126</v>
@@ -10151,12 +10151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
         <v>128</v>
@@ -10166,12 +10166,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
         <v>130</v>
@@ -10181,12 +10181,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
@@ -10196,12 +10196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C68" t="s">
         <v>134</v>
@@ -10211,12 +10211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
         <v>136</v>
@@ -10226,12 +10226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
         <v>137</v>
@@ -10241,12 +10241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
         <v>139</v>
@@ -10256,12 +10256,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
         <v>141</v>
@@ -10271,12 +10271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
         <v>143</v>
@@ -10286,12 +10286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
         <v>145</v>
@@ -10301,12 +10301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
         <v>147</v>
@@ -10316,12 +10316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
         <v>149</v>
@@ -10331,12 +10331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
         <v>151</v>
@@ -10346,12 +10346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
         <v>152</v>
@@ -10361,12 +10361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -10376,12 +10376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
         <v>156</v>
@@ -10391,12 +10391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
         <v>158</v>
@@ -10406,12 +10406,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
         <v>160</v>
@@ -10421,12 +10421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
         <v>162</v>
@@ -10436,12 +10436,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
         <v>164</v>
@@ -10451,12 +10451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
         <v>166</v>
@@ -10466,12 +10466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s">
         <v>168</v>
@@ -10481,12 +10481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
         <v>170</v>
@@ -10496,12 +10496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
         <v>172</v>
@@ -10511,12 +10511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
         <v>174</v>
@@ -10526,12 +10526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
         <v>176</v>
@@ -10541,12 +10541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
         <v>178</v>
@@ -10556,12 +10556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
         <v>180</v>
@@ -10571,12 +10571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -10586,12 +10586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
         <v>184</v>
